--- a/Projects/NESTLEUS/Data/ShelfMap.xlsx
+++ b/Projects/NESTLEUS/Data/ShelfMap.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="4">
   <si>
     <t xml:space="preserve">Bottom</t>
   </si>
@@ -46,6 +46,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -105,9 +106,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -127,18 +132,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.40816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="6.8469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="4.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -323,6 +328,41 @@
         <v>3</v>
       </c>
       <c r="J10" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
